--- a/biology/Médecine/Bridget_Ogilvie/Bridget_Ogilvie.xlsx
+++ b/biology/Médecine/Bridget_Ogilvie/Bridget_Ogilvie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bridget Margaret Ogilvie, née le 24 mars 1938 à Glen Innes (Nouvelle Galles du Sud), est une scientifique australienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée en Sciences rurales de l'université de Nouvelle-Angleterre (1960), elle bénéficie d'une bourse d'études à l'université de Cambridge, où elle obtient un doctorat avec une thèse sur le parasite intestinal Nippostrongylus brasiliensis.
 En 1963, elle se joint au département de parasitologie du National Institute for Medical Research, près de Londres. Elle y poursuit des recherches sur la réponse immunitaire aux nématodes. En 1986, elle est nommée directrice du Wellcome Trust, une fondation de charité londonienne, et demeure à ce poste jusqu'en 1998.
@@ -543,12 +557,14 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Kilgerran de la Foundation for Science and Technology (1994)
 «Dame commandeur» de l'Ordre de l'Empire britannique (1996)
 Fellow de la Royal Society (2003)
-Compagnon de l'Ordre d'Australie (2007)[1]</t>
+Compagnon de l'Ordre d'Australie (2007)</t>
         </is>
       </c>
     </row>
